--- a/biology/Médecine/Maurice_Aurélien_Sosso/Maurice_Aurélien_Sosso.xlsx
+++ b/biology/Médecine/Maurice_Aurélien_Sosso/Maurice_Aurélien_Sosso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maurice_Aur%C3%A9lien_Sosso</t>
+          <t>Maurice_Aurélien_Sosso</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maurice Aurélien Sosso est un universitaire camerounais, professeur agrégé de chirurgie et ancien recteur de l'université de Yaoundé I.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maurice_Aur%C3%A9lien_Sosso</t>
+          <t>Maurice_Aurélien_Sosso</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Maurice Aurélien Sosso est originaire du département du Nkam dans la région du Littoral[réf. souhaitée].
-Successivement inspecteur général des services au ministère de l'Enseignement supérieur, doyen de la faculté de médecine et de sciences biomédicale de Yaoundé et vice-recteur de l'université de Yaoundé I en remplacement d'Oumarou Bouba[1], il est nommé recteur par le décret présidentiel no 2012/333 du 29 juin 2012[2].
-D'après le ministère de l'Enseignement supérieur, il est auteur de 142 articles scientifiques[réf. nécessaire], encadreur de 80 thèses et mémoires[réf. nécessaire]. Sacré prix de l'excellence et meilleur médecin camerounais en 1997[réf. nécessaire], il est un expert auprès de l'Organisation mondiale de la santé[réf. nécessaire]. Autrefois recteur de l'université de Yaoundé 1 depuis 2012, il a été remplacé par le professeur Remy Magloire Dieudonné Etoua mardi le 9 avril 2024 par le décret présidentiel no 2024/106 du 9 avril 2024[3].
+Successivement inspecteur général des services au ministère de l'Enseignement supérieur, doyen de la faculté de médecine et de sciences biomédicale de Yaoundé et vice-recteur de l'université de Yaoundé I en remplacement d'Oumarou Bouba, il est nommé recteur par le décret présidentiel no 2012/333 du 29 juin 2012.
+D'après le ministère de l'Enseignement supérieur, il est auteur de 142 articles scientifiques[réf. nécessaire], encadreur de 80 thèses et mémoires[réf. nécessaire]. Sacré prix de l'excellence et meilleur médecin camerounais en 1997[réf. nécessaire], il est un expert auprès de l'Organisation mondiale de la santé[réf. nécessaire]. Autrefois recteur de l'université de Yaoundé 1 depuis 2012, il a été remplacé par le professeur Remy Magloire Dieudonné Etoua mardi le 9 avril 2024 par le décret présidentiel no 2024/106 du 9 avril 2024.
 </t>
         </is>
       </c>
